--- a/Output Report.xlsx
+++ b/Output Report.xlsx
@@ -40,97 +40,97 @@
     <t>Average Time Spent on Site</t>
   </si>
   <si>
-    <t>2021-01-01</t>
+    <t>2021/01/01</t>
   </si>
   <si>
-    <t>2021-01-02</t>
+    <t>2021/01/02</t>
   </si>
   <si>
-    <t>2021-01-03</t>
+    <t>2021/01/03</t>
   </si>
   <si>
-    <t>2021-01-04</t>
+    <t>2021/01/04</t>
   </si>
   <si>
-    <t>2021-01-05</t>
+    <t>2021/01/05</t>
   </si>
   <si>
-    <t>2021-01-06</t>
+    <t>2021/01/06</t>
   </si>
   <si>
-    <t>2021-01-07</t>
+    <t>2021/01/07</t>
   </si>
   <si>
-    <t>2021-01-08</t>
+    <t>2021/01/08</t>
   </si>
   <si>
-    <t>2021-01-09</t>
+    <t>2021/01/09</t>
   </si>
   <si>
-    <t>2021-01-10</t>
+    <t>2021/01/10</t>
   </si>
   <si>
-    <t>2021-01-11</t>
+    <t>2021/01/11</t>
   </si>
   <si>
-    <t>2021-01-12</t>
+    <t>2021/01/12</t>
   </si>
   <si>
-    <t>2021-01-13</t>
+    <t>2021/01/13</t>
   </si>
   <si>
-    <t>2021-01-14</t>
+    <t>2021/01/14</t>
   </si>
   <si>
-    <t>2021-01-15</t>
+    <t>2021/01/15</t>
   </si>
   <si>
-    <t>2021-01-16</t>
+    <t>2021/01/16</t>
   </si>
   <si>
-    <t>2021-01-17</t>
+    <t>2021/01/17</t>
   </si>
   <si>
-    <t>2021-01-18</t>
+    <t>2021/01/18</t>
   </si>
   <si>
-    <t>2021-01-19</t>
+    <t>2021/01/19</t>
   </si>
   <si>
-    <t>2021-01-20</t>
+    <t>2021/01/20</t>
   </si>
   <si>
-    <t>2021-01-21</t>
+    <t>2021/01/21</t>
   </si>
   <si>
-    <t>2021-01-22</t>
+    <t>2021/01/22</t>
   </si>
   <si>
-    <t>2021-01-23</t>
+    <t>2021/01/23</t>
   </si>
   <si>
-    <t>2021-01-24</t>
+    <t>2021/01/24</t>
   </si>
   <si>
-    <t>2021-01-25</t>
+    <t>2021/01/25</t>
   </si>
   <si>
-    <t>2021-01-26</t>
+    <t>2021/01/26</t>
   </si>
   <si>
-    <t>2021-01-27</t>
+    <t>2021/01/27</t>
   </si>
   <si>
-    <t>2021-01-28</t>
+    <t>2021/01/28</t>
   </si>
   <si>
-    <t>2021-01-29</t>
+    <t>2021/01/29</t>
   </si>
   <si>
-    <t>2021-01-30</t>
+    <t>2021/01/30</t>
   </si>
   <si>
-    <t>2021-01-31</t>
+    <t>2021/01/31</t>
   </si>
   <si>
     <t>site 1</t>
